--- a/target/classes/TestData/testDataSheet.xlsx
+++ b/target/classes/TestData/testDataSheet.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11325" windowHeight="3525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11325" windowHeight="3525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="Customer" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="InvalidLoginDetails" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>TC_ID</t>
   </si>
@@ -50,12 +50,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Test1234</t>
-  </si>
-  <si>
     <t>password_invalid</t>
   </si>
   <si>
@@ -180,6 +174,39 @@
   </si>
   <si>
     <t>sjdhkjsdhfqwuqwyeiu</t>
+  </si>
+  <si>
+    <t>manjunath1234</t>
+  </si>
+  <si>
+    <t>nitin111</t>
+  </si>
+  <si>
+    <t>nitin11212</t>
+  </si>
+  <si>
+    <t>autoenroll1</t>
+  </si>
+  <si>
+    <t>jayeshbulk1</t>
+  </si>
+  <si>
+    <t>santhosh123</t>
+  </si>
+  <si>
+    <t>FavText</t>
+  </si>
+  <si>
+    <t>pawankalyan</t>
+  </si>
+  <si>
+    <t>rancheran</t>
+  </si>
+  <si>
+    <t>chinajivi</t>
+  </si>
+  <si>
+    <t>pawanKalyan</t>
   </si>
 </sst>
 </file>
@@ -592,19 +619,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,21 +642,97 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="test@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -661,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -720,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>12345</v>
@@ -735,43 +839,43 @@
         <v>9900224430</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
       </c>
       <c r="N2">
         <v>2005</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
       </c>
       <c r="R2">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -797,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>9880306309</v>
@@ -832,10 +936,10 @@
         <v>87789789</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -848,12 +952,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/TestData/testDataSheet.xlsx
+++ b/target/classes/TestData/testDataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11325" windowHeight="3525" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11325" windowHeight="3525" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="Customer" sheetId="4" r:id="rId4"/>
     <sheet name="InvalidLoginDetails" sheetId="5" r:id="rId5"/>
+    <sheet name="ApptStartDate" sheetId="6" r:id="rId6"/>
+    <sheet name="DateSelect" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>TC_ID</t>
   </si>
@@ -207,13 +209,55 @@
   </si>
   <si>
     <t>pawanKalyan</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>EndMonth</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>february</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>ud3int1</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>DateV</t>
+  </si>
+  <si>
+    <t>SelectMonth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +281,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,10 +309,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -273,6 +324,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -321,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,94 +701,109 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="test@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -954,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1020,4 +1089,822 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>